--- a/MS/张渊_1501220101_第5次习题作业_9.15_9.16.xlsx
+++ b/MS/张渊_1501220101_第5次习题作业_9.15_9.16.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -626,8 +626,8 @@
         <v>6</v>
       </c>
       <c r="L4" s="4">
-        <f>SUMPRODUCT(C4:E4,C11:E11)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(C4:E4,Select?)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -648,7 +648,7 @@
       </c>
       <c r="L5" s="4">
         <f>SUMPRODUCT(C5:E5,C11:E11)</f>
-        <v>4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -699,18 +699,18 @@
       </c>
       <c r="D9" s="4">
         <f>D7*D13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
         <f>E7*E13</f>
-        <v>4.9999999976158138</v>
+        <v>5</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="5">
         <f>TotalMarginProfit-TotalPreparationCost</f>
-        <v>4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75">
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0.99999999952316276</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
